--- a/piem.xlsx
+++ b/piem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab9de0a26896c80/Dokumenti/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_992A6879E952152088E54BC38AA38135AD4BE2AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{249A2416-8C00-4D52-A563-0F0F57E94208}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_9EC0D89F5B86E61DB367C2D87AD50F7834A2FFF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6869B686-A808-4D9A-B0E1-DD6357A0A43C}"/>
   <bookViews>
     <workbookView xWindow="4790" yWindow="1170" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,25 +705,25 @@
         <v>40797</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C23" s="2">
         <v>45310</v>
       </c>
     </row>
